--- a/Tests Data/Uni-Solar ES-62T/Commercial emulator/STC/Commercial emulator - Uni‑Solar ES‑62T (STC).xlsx
+++ b/Tests Data/Uni-Solar ES-62T/Commercial emulator/STC/Commercial emulator - Uni‑Solar ES‑62T (STC).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel\Desktop\Stage\Émulateur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage\Emulator\Tests Data\Uni-Solar ES-62T\Commercial emulator\STC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BEC9DB-3ABD-423F-9510-FB4240474B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923E89BD-6CA7-4D30-AFD1-38DB6F8DEADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="Ênfase6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,11 +448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8D570-ED79-418B-A1D1-0F000D275672}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
